--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T18:46:46+00:00</t>
+    <t>2022-11-17T18:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T18:50:22+00:00</t>
+    <t>2022-11-17T19:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T19:05:57+00:00</t>
+    <t>2022-11-18T18:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T18:58:55+00:00</t>
+    <t>2022-11-21T14:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T14:25:15+00:00</t>
+    <t>2022-11-21T14:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T14:25:54+00:00</t>
+    <t>2022-11-21T15:06:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:06:17+00:00</t>
+    <t>2022-11-21T15:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:57:34+00:00</t>
+    <t>2022-11-21T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:58:19+00:00</t>
+    <t>2022-11-21T15:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:59:26+00:00</t>
+    <t>2022-11-21T16:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T16:10:12+00:00</t>
+    <t>2022-11-21T16:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T16:11:07+00:00</t>
+    <t>2022-11-22T17:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$151</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5240" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5273" uniqueCount="705">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T17:30:40+00:00</t>
+    <t>2022-11-22T21:05:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1507,6 +1507,25 @@
   </si>
   <si>
     <t>PlanDefinition.action.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>EpochId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://github.com/alpivonka/FHIR-Base-Clinical-Examples/StructureDefinition/epoch-id}
+</t>
+  </si>
+  <si>
+    <t>Epoch Link Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stores the Epoch Link Id URL to the defintion or reference. </t>
   </si>
   <si>
     <t>PlanDefinition.action.modifierExtension</t>
@@ -2475,7 +2494,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM150"/>
+  <dimension ref="A1:AM151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11494,7 +11513,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11516,14 +11535,12 @@
         <v>99</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>72</v>
@@ -11560,16 +11577,14 @@
         <v>72</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AB82" s="2"/>
       <c r="AC82" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>106</v>
@@ -11590,7 +11605,7 @@
         <v>72</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>72</v>
@@ -11601,43 +11616,41 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B83" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="C83" t="s" s="2">
-        <v>386</v>
+        <v>72</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>99</v>
+        <v>485</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>387</v>
+        <v>486</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>72</v>
       </c>
@@ -11685,7 +11698,7 @@
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
@@ -11703,7 +11716,7 @@
         <v>72</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -11714,39 +11727,43 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>484</v>
+        <v>387</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>72</v>
       </c>
@@ -11794,25 +11811,25 @@
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>483</v>
+        <v>389</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11823,7 +11840,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11849,10 +11866,10 @@
         <v>208</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11903,7 +11920,7 @@
         <v>72</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>73</v>
@@ -11932,7 +11949,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11958,10 +11975,10 @@
         <v>208</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12012,7 +12029,7 @@
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>73</v>
@@ -12027,10 +12044,10 @@
         <v>117</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -12041,7 +12058,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12067,10 +12084,10 @@
         <v>208</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12121,7 +12138,7 @@
         <v>72</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>73</v>
@@ -12136,10 +12153,10 @@
         <v>117</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -12150,7 +12167,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12176,10 +12193,10 @@
         <v>208</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12230,7 +12247,7 @@
         <v>72</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>73</v>
@@ -12259,7 +12276,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12282,13 +12299,13 @@
         <v>72</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12315,31 +12332,31 @@
         <v>72</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="X89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE89" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>73</v>
@@ -12354,10 +12371,10 @@
         <v>117</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>502</v>
+        <v>294</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
@@ -12391,7 +12408,7 @@
         <v>72</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>504</v>
@@ -12424,7 +12441,7 @@
         <v>72</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="X90" t="s" s="2">
         <v>506</v>
@@ -12488,7 +12505,7 @@
         <v>73</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>72</v>
@@ -12508,9 +12525,7 @@
       <c r="L91" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M91" t="s" s="2">
-        <v>512</v>
-      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>72</v>
@@ -12538,10 +12553,10 @@
         <v>148</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>72</v>
@@ -12565,7 +12580,7 @@
         <v>73</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>72</v>
@@ -12577,7 +12592,7 @@
         <v>72</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -12588,7 +12603,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12611,15 +12626,17 @@
         <v>72</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>368</v>
+        <v>232</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>72</v>
@@ -12644,13 +12661,13 @@
         <v>72</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>72</v>
+        <v>519</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>72</v>
+        <v>520</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>72</v>
@@ -12668,7 +12685,7 @@
         <v>72</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>73</v>
@@ -12686,7 +12703,7 @@
         <v>72</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>213</v>
+        <v>521</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -12697,7 +12714,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12720,13 +12737,13 @@
         <v>72</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12777,7 +12794,7 @@
         <v>72</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>73</v>
@@ -12806,7 +12823,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12817,7 +12834,7 @@
         <v>73</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>72</v>
@@ -12829,76 +12846,70 @@
         <v>72</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>523</v>
+        <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE94" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="Q94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AF94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>72</v>
@@ -12907,7 +12918,7 @@
         <v>117</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>213</v>
@@ -12932,7 +12943,7 @@
         <v>73</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>72</v>
@@ -12952,12 +12963,18 @@
       <c r="L95" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+      <c r="M95" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="P95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="Q95" t="s" s="2">
         <v>72</v>
       </c>
@@ -12977,13 +12994,13 @@
         <v>72</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>72</v>
@@ -13007,7 +13024,7 @@
         <v>73</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>72</v>
@@ -13016,7 +13033,7 @@
         <v>117</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>213</v>
@@ -13030,7 +13047,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13053,17 +13070,15 @@
         <v>72</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>379</v>
+        <v>535</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>72</v>
@@ -13112,7 +13127,7 @@
         <v>72</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>73</v>
@@ -13141,7 +13156,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13152,7 +13167,7 @@
         <v>73</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>72</v>
@@ -13164,15 +13179,17 @@
         <v>72</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>208</v>
+        <v>379</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>93</v>
+        <v>539</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M97" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>72</v>
@@ -13221,25 +13238,25 @@
         <v>72</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>95</v>
+        <v>538</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>72</v>
@@ -13250,18 +13267,18 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>72</v>
@@ -13273,17 +13290,15 @@
         <v>72</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>72</v>
@@ -13332,19 +13347,19 @@
         <v>72</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>72</v>
@@ -13361,11 +13376,11 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>386</v>
+        <v>98</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13378,26 +13393,24 @@
         <v>72</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>387</v>
+        <v>100</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>388</v>
+        <v>101</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N99" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>72</v>
       </c>
@@ -13445,7 +13458,7 @@
         <v>72</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>73</v>
@@ -13463,7 +13476,7 @@
         <v>72</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -13474,41 +13487,43 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>540</v>
+        <v>387</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>541</v>
+        <v>388</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>72</v>
       </c>
@@ -13532,13 +13547,13 @@
         <v>72</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>543</v>
+        <v>72</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>544</v>
+        <v>72</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>72</v>
@@ -13556,25 +13571,25 @@
         <v>72</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>539</v>
+        <v>389</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -13593,7 +13608,7 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>80</v>
@@ -13608,16 +13623,16 @@
         <v>72</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="K101" t="s" s="2">
+      <c r="L101" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13643,13 +13658,13 @@
         <v>72</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>72</v>
+        <v>549</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>72</v>
+        <v>550</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>72</v>
@@ -13670,7 +13685,7 @@
         <v>545</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -13696,7 +13711,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13707,7 +13722,7 @@
         <v>73</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>72</v>
@@ -13719,15 +13734,17 @@
         <v>72</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>379</v>
+        <v>552</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>72</v>
@@ -13776,19 +13793,19 @@
         <v>72</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>553</v>
+        <v>117</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>72</v>
@@ -13805,7 +13822,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13816,7 +13833,7 @@
         <v>73</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>72</v>
@@ -13828,13 +13845,13 @@
         <v>72</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>208</v>
+        <v>379</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>93</v>
+        <v>557</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>94</v>
+        <v>558</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13885,25 +13902,25 @@
         <v>72</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>95</v>
+        <v>556</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>72</v>
+        <v>559</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>72</v>
@@ -13914,18 +13931,18 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>72</v>
@@ -13937,17 +13954,15 @@
         <v>72</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>72</v>
@@ -13996,19 +14011,19 @@
         <v>72</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>72</v>
@@ -14025,11 +14040,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>386</v>
+        <v>98</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14042,26 +14057,24 @@
         <v>72</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>387</v>
+        <v>100</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>388</v>
+        <v>101</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N105" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>72</v>
       </c>
@@ -14109,7 +14122,7 @@
         <v>72</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>73</v>
@@ -14127,7 +14140,7 @@
         <v>72</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
@@ -14138,39 +14151,43 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>447</v>
+        <v>387</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>72</v>
       </c>
@@ -14218,25 +14235,25 @@
         <v>72</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>557</v>
+        <v>389</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>72</v>
@@ -14247,7 +14264,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14270,13 +14287,13 @@
         <v>72</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>560</v>
+        <v>208</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>561</v>
+        <v>447</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14327,7 +14344,7 @@
         <v>72</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>73</v>
@@ -14356,7 +14373,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14379,17 +14396,15 @@
         <v>72</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>72</v>
@@ -14438,7 +14453,7 @@
         <v>72</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>73</v>
@@ -14467,7 +14482,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14478,7 +14493,7 @@
         <v>73</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>72</v>
@@ -14490,15 +14505,17 @@
         <v>72</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>567</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>72</v>
@@ -14547,19 +14564,19 @@
         <v>72</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>569</v>
+        <v>117</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>72</v>
@@ -14576,7 +14593,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14587,7 +14604,7 @@
         <v>73</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>72</v>
@@ -14599,13 +14616,13 @@
         <v>72</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>208</v>
+        <v>379</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>93</v>
+        <v>573</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>94</v>
+        <v>574</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14656,25 +14673,25 @@
         <v>72</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>95</v>
+        <v>572</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>72</v>
+        <v>575</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>72</v>
@@ -14685,18 +14702,18 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>72</v>
@@ -14708,17 +14725,15 @@
         <v>72</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>72</v>
@@ -14767,19 +14782,19 @@
         <v>72</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>72</v>
@@ -14796,11 +14811,11 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>386</v>
+        <v>98</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14813,26 +14828,24 @@
         <v>72</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>387</v>
+        <v>100</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>388</v>
+        <v>101</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N112" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>72</v>
       </c>
@@ -14880,7 +14893,7 @@
         <v>72</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>73</v>
@@ -14898,7 +14911,7 @@
         <v>72</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>72</v>
@@ -14909,39 +14922,43 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>447</v>
+        <v>387</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>72</v>
       </c>
@@ -14989,25 +15006,25 @@
         <v>72</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>573</v>
+        <v>389</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>72</v>
@@ -15018,7 +15035,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15041,13 +15058,13 @@
         <v>72</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>560</v>
+        <v>208</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>561</v>
+        <v>447</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15098,7 +15115,7 @@
         <v>72</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>73</v>
@@ -15127,7 +15144,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15150,17 +15167,15 @@
         <v>72</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>208</v>
+        <v>566</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>72</v>
@@ -15209,7 +15224,7 @@
         <v>72</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>73</v>
@@ -15238,7 +15253,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15249,7 +15264,7 @@
         <v>73</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>72</v>
@@ -15261,16 +15276,16 @@
         <v>72</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>379</v>
+        <v>208</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -15320,13 +15335,13 @@
         <v>72</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>72</v>
@@ -15349,7 +15364,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15360,7 +15375,7 @@
         <v>73</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>72</v>
@@ -15372,15 +15387,17 @@
         <v>72</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>208</v>
+        <v>379</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>93</v>
+        <v>586</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M117" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>72</v>
@@ -15429,25 +15446,25 @@
         <v>72</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>95</v>
+        <v>585</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>72</v>
@@ -15458,18 +15475,18 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>72</v>
@@ -15481,17 +15498,15 @@
         <v>72</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M118" s="2"/>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>72</v>
@@ -15540,19 +15555,19 @@
         <v>72</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>72</v>
@@ -15569,11 +15584,11 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>386</v>
+        <v>98</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -15586,26 +15601,24 @@
         <v>72</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>387</v>
+        <v>100</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>388</v>
+        <v>101</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N119" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>72</v>
       </c>
@@ -15653,7 +15666,7 @@
         <v>72</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>73</v>
@@ -15671,7 +15684,7 @@
         <v>72</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>72</v>
@@ -15682,39 +15695,43 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>587</v>
+        <v>387</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O120" t="s" s="2">
         <v>72</v>
       </c>
@@ -15762,25 +15779,25 @@
         <v>72</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>586</v>
+        <v>389</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>72</v>
@@ -15791,7 +15808,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15814,13 +15831,13 @@
         <v>72</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15847,31 +15864,31 @@
         <v>72</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="X121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE121" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>80</v>
@@ -15900,7 +15917,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15908,7 +15925,7 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>80</v>
@@ -15923,7 +15940,7 @@
         <v>72</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>595</v>
+        <v>157</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>596</v>
@@ -15956,13 +15973,13 @@
         <v>72</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>72</v>
+        <v>598</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>72</v>
+        <v>599</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>72</v>
@@ -15980,10 +15997,10 @@
         <v>72</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16009,7 +16026,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16032,20 +16049,16 @@
         <v>72</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N123" t="s" s="2">
         <v>603</v>
       </c>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>72</v>
       </c>
@@ -16093,7 +16106,7 @@
         <v>72</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>73</v>
@@ -16111,7 +16124,7 @@
         <v>72</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>604</v>
+        <v>213</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>72</v>
@@ -16122,11 +16135,11 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>606</v>
+        <v>72</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16145,19 +16158,19 @@
         <v>72</v>
       </c>
       <c r="J124" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="K124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>72</v>
@@ -16206,7 +16219,7 @@
         <v>72</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>73</v>
@@ -16224,7 +16237,7 @@
         <v>72</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>72</v>
@@ -16235,18 +16248,18 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>72</v>
+        <v>612</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>72</v>
@@ -16258,7 +16271,7 @@
         <v>72</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>379</v>
+        <v>613</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>614</v>
@@ -16266,8 +16279,12 @@
       <c r="L125" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
+      <c r="M125" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>617</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>72</v>
       </c>
@@ -16315,13 +16332,13 @@
         <v>72</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>72</v>
@@ -16333,7 +16350,7 @@
         <v>72</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>442</v>
+        <v>618</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>72</v>
@@ -16344,7 +16361,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16355,7 +16372,7 @@
         <v>73</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>72</v>
@@ -16367,13 +16384,13 @@
         <v>72</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>208</v>
+        <v>379</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>93</v>
+        <v>620</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>94</v>
+        <v>621</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16424,25 +16441,25 @@
         <v>72</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>95</v>
+        <v>619</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>96</v>
+        <v>442</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>72</v>
@@ -16453,18 +16470,18 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>72</v>
@@ -16476,17 +16493,15 @@
         <v>72</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>72</v>
@@ -16535,19 +16550,19 @@
         <v>72</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>72</v>
@@ -16564,11 +16579,11 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>386</v>
+        <v>98</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -16581,26 +16596,24 @@
         <v>72</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J128" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>387</v>
+        <v>100</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>388</v>
+        <v>101</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N128" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>72</v>
       </c>
@@ -16648,7 +16661,7 @@
         <v>72</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>73</v>
@@ -16666,7 +16679,7 @@
         <v>72</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>72</v>
@@ -16677,39 +16690,43 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>620</v>
+        <v>387</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>72</v>
       </c>
@@ -16757,25 +16774,25 @@
         <v>72</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>619</v>
+        <v>389</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>72</v>
@@ -16786,7 +16803,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16809,13 +16826,13 @@
         <v>72</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>459</v>
+        <v>626</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>460</v>
+        <v>627</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -16842,13 +16859,13 @@
         <v>72</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>461</v>
+        <v>72</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>462</v>
+        <v>72</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>72</v>
@@ -16866,7 +16883,7 @@
         <v>72</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>73</v>
@@ -16884,7 +16901,7 @@
         <v>72</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>463</v>
+        <v>213</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>72</v>
@@ -16895,7 +16912,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16918,10 +16935,10 @@
         <v>72</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>465</v>
+        <v>157</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>460</v>
@@ -16951,13 +16968,13 @@
         <v>72</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>72</v>
+        <v>461</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>72</v>
+        <v>462</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>72</v>
@@ -16975,7 +16992,7 @@
         <v>72</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>73</v>
@@ -17004,7 +17021,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17027,7 +17044,7 @@
         <v>72</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>466</v>
@@ -17035,9 +17052,7 @@
       <c r="L132" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M132" t="s" s="2">
-        <v>469</v>
-      </c>
+      <c r="M132" s="2"/>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>72</v>
@@ -17086,7 +17101,7 @@
         <v>72</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>73</v>
@@ -17115,7 +17130,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17138,15 +17153,17 @@
         <v>72</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>232</v>
+        <v>468</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M133" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>72</v>
@@ -17171,13 +17188,13 @@
         <v>72</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>626</v>
+        <v>72</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>473</v>
+        <v>72</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>72</v>
@@ -17195,7 +17212,7 @@
         <v>72</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>73</v>
@@ -17213,7 +17230,7 @@
         <v>72</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>627</v>
+        <v>463</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>72</v>
@@ -17224,7 +17241,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17250,10 +17267,10 @@
         <v>232</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>629</v>
+        <v>471</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>630</v>
+        <v>472</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -17282,27 +17299,29 @@
       <c r="W134" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="X134" s="2"/>
+      <c r="X134" t="s" s="2">
+        <v>632</v>
+      </c>
       <c r="Y134" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE134" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>73</v>
@@ -17320,7 +17339,7 @@
         <v>72</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>72</v>
@@ -17331,7 +17350,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17357,10 +17376,10 @@
         <v>232</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -17387,13 +17406,11 @@
         <v>72</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>635</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X135" s="2"/>
       <c r="Y135" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>72</v>
@@ -17411,7 +17428,7 @@
         <v>72</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>73</v>
@@ -17429,7 +17446,7 @@
         <v>72</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>72</v>
@@ -17463,7 +17480,7 @@
         <v>72</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>639</v>
@@ -17496,7 +17513,7 @@
         <v>72</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="X136" t="s" s="2">
         <v>641</v>
@@ -17538,7 +17555,7 @@
         <v>72</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>180</v>
+        <v>643</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>72</v>
@@ -17549,7 +17566,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17575,10 +17592,10 @@
         <v>157</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -17608,10 +17625,10 @@
         <v>241</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>72</v>
@@ -17629,7 +17646,7 @@
         <v>72</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>73</v>
@@ -17658,7 +17675,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17684,10 +17701,10 @@
         <v>157</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -17717,10 +17734,10 @@
         <v>241</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>72</v>
@@ -17738,7 +17755,7 @@
         <v>72</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>73</v>
@@ -17767,7 +17784,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17793,10 +17810,10 @@
         <v>157</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17826,10 +17843,10 @@
         <v>241</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>72</v>
@@ -17847,7 +17864,7 @@
         <v>72</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>73</v>
@@ -17876,7 +17893,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17902,10 +17919,10 @@
         <v>157</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -17935,10 +17952,10 @@
         <v>241</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>72</v>
@@ -17956,7 +17973,7 @@
         <v>72</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>73</v>
@@ -17985,7 +18002,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18008,7 +18025,7 @@
         <v>72</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>664</v>
+        <v>157</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>665</v>
@@ -18016,9 +18033,7 @@
       <c r="L141" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="M141" t="s" s="2">
-        <v>667</v>
-      </c>
+      <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>72</v>
@@ -18043,13 +18058,13 @@
         <v>72</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>72</v>
+        <v>667</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>72</v>
+        <v>668</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>72</v>
@@ -18067,7 +18082,7 @@
         <v>72</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>73</v>
@@ -18082,10 +18097,10 @@
         <v>117</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>668</v>
+        <v>72</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>479</v>
+        <v>180</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>72</v>
@@ -18193,10 +18208,10 @@
         <v>117</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>72</v>
+        <v>674</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>180</v>
+        <v>479</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>72</v>
@@ -18207,7 +18222,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18218,7 +18233,7 @@
         <v>73</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>72</v>
@@ -18230,16 +18245,16 @@
         <v>72</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>379</v>
+        <v>676</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
@@ -18289,13 +18304,13 @@
         <v>72</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>72</v>
@@ -18318,7 +18333,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18329,7 +18344,7 @@
         <v>73</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>72</v>
@@ -18341,15 +18356,17 @@
         <v>72</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>208</v>
+        <v>379</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>93</v>
+        <v>681</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M144" s="2"/>
+        <v>682</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>683</v>
+      </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
         <v>72</v>
@@ -18398,25 +18415,25 @@
         <v>72</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>95</v>
+        <v>680</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>72</v>
@@ -18427,18 +18444,18 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>72</v>
@@ -18450,17 +18467,15 @@
         <v>72</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M145" s="2"/>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>72</v>
@@ -18509,19 +18524,19 @@
         <v>72</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>72</v>
@@ -18538,11 +18553,11 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>386</v>
+        <v>98</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18555,26 +18570,24 @@
         <v>72</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J146" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>387</v>
+        <v>100</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>388</v>
+        <v>101</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N146" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
         <v>72</v>
       </c>
@@ -18622,7 +18635,7 @@
         <v>72</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>73</v>
@@ -18640,7 +18653,7 @@
         <v>72</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>72</v>
@@ -18651,41 +18664,43 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>682</v>
+        <v>387</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>683</v>
+        <v>388</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="N147" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O147" t="s" s="2">
         <v>72</v>
       </c>
@@ -18733,19 +18748,19 @@
         <v>72</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>681</v>
+        <v>389</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>72</v>
@@ -18762,7 +18777,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18785,16 +18800,16 @@
         <v>72</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>546</v>
+        <v>208</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>549</v>
+        <v>690</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -18844,7 +18859,7 @@
         <v>72</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>73</v>
@@ -18873,7 +18888,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18884,7 +18899,7 @@
         <v>73</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>72</v>
@@ -18896,15 +18911,17 @@
         <v>72</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>72</v>
+        <v>552</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="M149" s="2"/>
+        <v>693</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>72</v>
@@ -18953,13 +18970,13 @@
         <v>72</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>72</v>
@@ -18968,7 +18985,7 @@
         <v>117</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>691</v>
+        <v>72</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>180</v>
@@ -18982,7 +18999,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18993,7 +19010,7 @@
         <v>73</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>72</v>
@@ -19002,16 +19019,16 @@
         <v>72</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>693</v>
+        <v>72</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -19038,13 +19055,13 @@
         <v>72</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>696</v>
+        <v>72</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>697</v>
+        <v>72</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>72</v>
@@ -19062,13 +19079,13 @@
         <v>72</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>72</v>
@@ -19077,20 +19094,129 @@
         <v>117</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>72</v>
+        <v>697</v>
       </c>
       <c r="AK150" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" hidden="true">
+      <c r="A151" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="AL150" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AM150" t="s" s="2">
+      <c r="B151" s="2"/>
+      <c r="C151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM151" t="s" s="2">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM150">
+  <autoFilter ref="A1:AM151">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19100,7 +19226,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI149">
+  <conditionalFormatting sqref="A2:AI150">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T21:05:37+00:00</t>
+    <t>2022-11-28T16:09:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:09:45+00:00</t>
+    <t>2022-11-28T16:23:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:23:56+00:00</t>
+    <t>2022-11-28T16:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:45:04+00:00</t>
+    <t>2022-11-28T18:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:28:29+00:00</t>
+    <t>2022-11-28T18:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:16+00:00</t>
+    <t>2022-11-28T18:44:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:54+00:00</t>
+    <t>2022-11-28T18:46:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:46:24+00:00</t>
+    <t>2022-11-28T18:54:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:54:17+00:00</t>
+    <t>2022-11-28T18:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:57:56+00:00</t>
+    <t>2022-11-28T19:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T19:21:05+00:00</t>
+    <t>2022-11-28T20:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T20:19:31+00:00</t>
+    <t>2022-11-28T21:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:47:14+00:00</t>
+    <t>2022-11-28T21:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:50:18+00:00</t>
+    <t>2022-11-28T22:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T22:13:55+00:00</t>
+    <t>2022-11-29T14:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:31:35+00:00</t>
+    <t>2022-11-29T14:39:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:39:13+00:00</t>
+    <t>2022-11-29T18:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T18:40:08+00:00</t>
+    <t>2022-11-29T19:09:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:09:47+00:00</t>
+    <t>2022-11-29T19:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:18:22+00:00</t>
+    <t>2022-11-29T19:32:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:32:41+00:00</t>
+    <t>2022-11-29T19:42:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:42:29+00:00</t>
+    <t>2022-11-29T19:57:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-epoch-definition.xlsx
+++ b/branches/master/StructureDefinition-epoch-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:57:48+00:00</t>
+    <t>2022-11-29T20:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
